--- a/訓練內容.xlsx
+++ b/訓練內容.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\訓練素材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4941EE-EF1F-4DDD-9E1D-91E268E7EEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87071DB6-563E-45C2-B5FE-A383AA675A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="4692" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2844" yWindow="1320" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -166,6 +166,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -214,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,7 +235,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,6 +250,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -462,78 +471,81 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14">
         <v>99</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="E2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16">
         <v>45176</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="15">
+    <row r="3" spans="1:7" ht="16.2">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14">
         <v>100</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="16">
         <v>45176</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -553,27 +565,28 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
         <v>100</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="16">
         <v>45176</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,7 +606,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -613,23 +626,26 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14">
         <v>101</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="18"/>
+      <c r="F8" s="16">
+        <v>45177</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -649,7 +665,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -669,23 +685,26 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14">
         <v>103</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="18"/>
+      <c r="F11" s="16">
+        <v>45177</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -705,7 +724,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -715,11 +734,11 @@
       <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
@@ -727,5 +746,6 @@
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/訓練內容.xlsx
+++ b/訓練內容.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\訓練素材\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87071DB6-563E-45C2-B5FE-A383AA675A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1586FEB-F626-4852-901B-17E0E4B39621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="1320" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>題目來源</t>
   </si>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>侵蝕程式處理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,7 +254,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -474,7 +477,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -502,7 +505,7 @@
       <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -543,7 +546,7 @@
       <c r="F3" s="16">
         <v>45176</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -639,7 +642,9 @@
       <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="16">
         <v>45177</v>
       </c>
@@ -698,7 +703,9 @@
       <c r="D11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="16">
         <v>45177</v>
       </c>

--- a/訓練內容.xlsx
+++ b/訓練內容.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\訓練素材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C97B5A7-9744-4ADC-B817-3F31EB1AE83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0CE420-4ED2-4115-8CAD-678C89EA4CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -40,81 +40,91 @@
     <t>p3-1</t>
   </si>
   <si>
+    <t>p2-2</t>
+  </si>
+  <si>
+    <t>p4-1</t>
+  </si>
+  <si>
+    <t>p1-1</t>
+  </si>
+  <si>
+    <t>p1-2</t>
+  </si>
+  <si>
+    <t>台北軟體設計</t>
+  </si>
+  <si>
+    <t>國際標準書號 ISBN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字串的處理(數字運算式)[含+、-、*]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找零錢問題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵蝕程式處理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成日期Ffirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成日期Second</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>計算位元為1 的個數</t>
-  </si>
-  <si>
-    <t>p2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撲克牌遊戲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>計算兩人之間共同朋友的數量</t>
-  </si>
-  <si>
-    <t>撲克牌遊戲</t>
-  </si>
-  <si>
-    <t>p4-1</t>
-  </si>
-  <si>
-    <t>p1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>進制轉換</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>關鍵字排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>計算英文單字出現的總次數</t>
-  </si>
-  <si>
-    <t>p1-2</t>
-  </si>
-  <si>
-    <t>關鍵字排名</t>
-  </si>
-  <si>
-    <t>進制轉換</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>檢查碼問題(身分證求第一位英文可能的值)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>文章的用字統計</t>
-  </si>
-  <si>
-    <t>台北軟體設計</t>
-  </si>
-  <si>
-    <t>國際標準書號 ISBN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字串的處理(數字運算式)[含+、-、*]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找零錢問題</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>侵蝕程式處理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成日期Ffirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成日期Second</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion" alignment="distributed"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="微軟正黑體"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,7 +136,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
+      <name val="微軟正黑體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -141,7 +151,36 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFBDC1C6"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -175,20 +214,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="千分位" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -204,59 +252,123 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="要素">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="要素">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="335B74"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="DFE3E5"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="1CADE4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="2683C6"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="27CED7"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="42BA97"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="3E8853"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="62A39F"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="6B9F25"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="B26B02"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="要素">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Tw Cen MT Condensed" panose="020B0606020104020203"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Grek" typeface="Calibri"/>
+        <a:font script="Cyrl" typeface="Calibri"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
+        <a:font script="Hang" typeface="HY얕은샘물M"/>
+        <a:font script="Hans" typeface="华文仿宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Levenim MT"/>
+        <a:font script="Thai" typeface="FreesiaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Tw Cen MT" panose="020B0602020104020603"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Grek" typeface="Calibri"/>
+        <a:font script="Cyrl" typeface="Calibri"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
+        <a:font script="Hang" typeface="HY얕은샘물M"/>
+        <a:font script="Hans" typeface="华文仿宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Levenim MT"/>
+        <a:font script="Thai" typeface="FreesiaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="要素">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -265,76 +377,65 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="83000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="61000"/>
+                <a:satMod val="150000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="100000" t="100000" r="100000" b="100000"/>
+          </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
+                <a:tint val="100000"/>
+                <a:shade val="85000"/>
+                <a:satMod val="100000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="90000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="150000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="100000" t="100000" r="100000" b="100000"/>
+          </a:path>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -342,16 +443,39 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="76200" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="flat" dir="t">
+              <a:rot lat="0" lon="0" rev="3600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="12700" prstMaterial="flat">
+            <a:bevelT w="38100" h="44450" prst="angle"/>
+            <a:contourClr>
+              <a:schemeClr val="phClr">
+                <a:shade val="35000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -361,41 +485,37 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:shade val="85000"/>
+            <a:satMod val="125000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="95000"/>
+                <a:shade val="74000"/>
+                <a:satMod val="230000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="92000"/>
+                <a:shade val="69000"/>
+                <a:satMod val="250000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+            </a:duotone>
+          </a:blip>
+          <a:tile tx="0" ty="0" sx="40000" sy="40000" flip="none" algn="tl"/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -404,40 +524,44 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="3" max="3" width="5.09765625" customWidth="1"/>
+    <col min="4" max="4" width="39.3984375" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="16.296875" customWidth="1"/>
+    <col min="7" max="7" width="8.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -445,19 +569,19 @@
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4">
         <v>45176</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>45179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -465,16 +589,19 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
         <v>45176</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="7">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -484,17 +611,17 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4">
         <v>45175</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>45179</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -502,19 +629,21 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
         <v>45176</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>45179</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -522,19 +651,19 @@
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4">
         <v>45174</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>45179</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -542,19 +671,19 @@
         <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
         <v>45175</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>45179</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -562,16 +691,19 @@
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
         <v>45177</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="7">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -579,19 +711,19 @@
         <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
         <v>45175</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>45179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -599,16 +731,19 @@
         <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4">
         <v>45173</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="7">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -618,14 +753,17 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4">
         <v>45177</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="7">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -635,16 +773,19 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4">
         <v>45173</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="7">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>104</v>
@@ -652,12 +793,16 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4">
         <v>45178</v>
       </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">

--- a/訓練內容.xlsx
+++ b/訓練內容.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\訓練素材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0CE420-4ED2-4115-8CAD-678C89EA4CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0DF345-CF46-4DD6-9FA7-BC1A3D3E6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -216,7 +216,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -227,11 +227,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -526,8 +526,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -799,7 +799,9 @@
       <c r="E13" s="4">
         <v>45178</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>45181</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="3"/>
